--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.515328</v>
+      </c>
+      <c r="H2">
+        <v>1.030656</v>
+      </c>
+      <c r="I2">
+        <v>0.0001613041071716636</v>
+      </c>
+      <c r="J2">
+        <v>0.0001075508877125494</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.669061</v>
-      </c>
-      <c r="H2">
-        <v>1.338122</v>
-      </c>
-      <c r="I2">
-        <v>0.002237193723528829</v>
-      </c>
-      <c r="J2">
-        <v>0.001492575542564459</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.320495</v>
+        <v>0.1742985</v>
       </c>
       <c r="N2">
-        <v>0.6409899999999999</v>
+        <v>0.348597</v>
       </c>
       <c r="O2">
-        <v>0.002940116641429889</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P2">
-        <v>0.001962000597822644</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q2">
-        <v>0.214430705195</v>
+        <v>0.08982089740800001</v>
       </c>
       <c r="R2">
-        <v>0.85772282078</v>
+        <v>0.359283589632</v>
       </c>
       <c r="S2">
-        <v>6.577610496649609E-06</v>
+        <v>2.192552079380602E-07</v>
       </c>
       <c r="T2">
-        <v>2.928434106806925E-06</v>
+        <v>9.754251988336455E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.669061</v>
+        <v>0.515328</v>
       </c>
       <c r="H3">
-        <v>1.338122</v>
+        <v>1.030656</v>
       </c>
       <c r="I3">
-        <v>0.002237193723528829</v>
+        <v>0.0001613041071716636</v>
       </c>
       <c r="J3">
-        <v>0.001492575542564459</v>
+        <v>0.0001075508877125494</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +629,22 @@
         <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.0001043566572771055</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001044590311890878</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q3">
-        <v>0.007611014915666666</v>
+        <v>0.005862199552</v>
       </c>
       <c r="R3">
-        <v>0.045666089494</v>
+        <v>0.035173197312</v>
       </c>
       <c r="S3">
-        <v>2.334660586687896E-07</v>
+        <v>1.430978557149982E-08</v>
       </c>
       <c r="T3">
-        <v>1.559129951528104E-07</v>
+        <v>9.549231852424381E-09</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.669061</v>
+        <v>0.515328</v>
       </c>
       <c r="H4">
-        <v>1.338122</v>
+        <v>1.030656</v>
       </c>
       <c r="I4">
-        <v>0.002237193723528829</v>
+        <v>0.0001613041071716636</v>
       </c>
       <c r="J4">
-        <v>0.001492575542564459</v>
+        <v>0.0001075508877125494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.78764200000001</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N4">
-        <v>146.362926</v>
+        <v>239.316913</v>
       </c>
       <c r="O4">
-        <v>0.4475619218406646</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P4">
-        <v>0.4480009802197716</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q4">
-        <v>32.64190854416201</v>
+        <v>41.108902047488</v>
       </c>
       <c r="R4">
-        <v>195.851451264972</v>
+        <v>246.653412284928</v>
       </c>
       <c r="S4">
-        <v>0.001001282722432436</v>
+        <v>0.0001003479271152834</v>
       </c>
       <c r="T4">
-        <v>0.000668675306120935</v>
+        <v>6.696435925933936E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.515328</v>
+      </c>
+      <c r="H5">
+        <v>1.030656</v>
+      </c>
+      <c r="I5">
+        <v>0.0001613041071716636</v>
+      </c>
+      <c r="J5">
+        <v>0.0001075508877125494</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <v>0.669061</v>
-      </c>
-      <c r="H5">
-        <v>1.338122</v>
-      </c>
-      <c r="I5">
-        <v>0.002237193723528829</v>
-      </c>
-      <c r="J5">
-        <v>0.001492575542564459</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.271596</v>
+        <v>0.150414</v>
       </c>
       <c r="N5">
-        <v>0.8147880000000001</v>
+        <v>0.300828</v>
       </c>
       <c r="O5">
-        <v>0.002491533157602434</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P5">
-        <v>0.00249397735237479</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q5">
-        <v>0.181714291356</v>
+        <v>0.077512545792</v>
       </c>
       <c r="R5">
-        <v>1.090285748136</v>
+        <v>0.310050183168</v>
       </c>
       <c r="S5">
-        <v>5.574042342152132E-06</v>
+        <v>1.89210193127281E-07</v>
       </c>
       <c r="T5">
-        <v>3.722449599864274E-06</v>
+        <v>8.417605765819209E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.669061</v>
+        <v>0.515328</v>
       </c>
       <c r="H6">
-        <v>1.338122</v>
+        <v>1.030656</v>
       </c>
       <c r="I6">
-        <v>0.002237193723528829</v>
+        <v>0.0001613041071716636</v>
       </c>
       <c r="J6">
-        <v>0.001492575542564459</v>
+        <v>0.0001075508877125494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.61647133333334</v>
+        <v>11.020322</v>
       </c>
       <c r="N6">
-        <v>178.849414</v>
+        <v>33.060966</v>
       </c>
       <c r="O6">
-        <v>0.546902071703026</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P6">
-        <v>0.5474385827988417</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q6">
-        <v>39.88705592675134</v>
+        <v>5.679080495616001</v>
       </c>
       <c r="R6">
-        <v>239.322335560508</v>
+        <v>34.074482973696</v>
       </c>
       <c r="S6">
-        <v>0.001223525882198924</v>
+        <v>1.386278706732634E-05</v>
       </c>
       <c r="T6">
-        <v>0.0008170934397416995</v>
+        <v>9.250940006420707E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>157.3478953333333</v>
+        <v>0.515328</v>
       </c>
       <c r="H7">
-        <v>472.043686</v>
+        <v>1.030656</v>
       </c>
       <c r="I7">
-        <v>0.5261369648659905</v>
+        <v>0.0001613041071716636</v>
       </c>
       <c r="J7">
-        <v>0.5265296144488896</v>
+        <v>0.0001075508877125494</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.320495</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N7">
-        <v>0.6409899999999999</v>
+        <v>111.303427</v>
       </c>
       <c r="O7">
-        <v>0.002940116641429889</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P7">
-        <v>0.001962000597822644</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q7">
-        <v>50.42921371485666</v>
+        <v>19.119257476352</v>
       </c>
       <c r="R7">
-        <v>302.57528228914</v>
+        <v>114.715544858112</v>
       </c>
       <c r="S7">
-        <v>0.001546904046073911</v>
+        <v>4.667061780241695E-05</v>
       </c>
       <c r="T7">
-        <v>0.001033051418320047</v>
+        <v>3.114432063739538E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>157.3478953333333</v>
+        <v>178.0773926666667</v>
       </c>
       <c r="H8">
-        <v>472.043686</v>
+        <v>534.232178</v>
       </c>
       <c r="I8">
-        <v>0.5261369648659905</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="J8">
-        <v>0.5265296144488896</v>
+        <v>0.0557481303058525</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01137566666666667</v>
+        <v>0.1742985</v>
       </c>
       <c r="N8">
-        <v>0.034127</v>
+        <v>0.348597</v>
       </c>
       <c r="O8">
-        <v>0.0001043566572771055</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P8">
-        <v>0.0001044590311890878</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q8">
-        <v>1.789937208013555</v>
+        <v>31.038622425711</v>
       </c>
       <c r="R8">
-        <v>16.109434872122</v>
+        <v>186.231734554266</v>
       </c>
       <c r="S8">
-        <v>5.490589492333669E-05</v>
+        <v>7.576610577767482E-05</v>
       </c>
       <c r="T8">
-        <v>5.500077341769491E-05</v>
+        <v>5.056037401897252E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>157.3478953333333</v>
+        <v>178.0773926666667</v>
       </c>
       <c r="H9">
-        <v>472.043686</v>
+        <v>534.232178</v>
       </c>
       <c r="I9">
-        <v>0.5261369648659905</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="J9">
-        <v>0.5265296144488896</v>
+        <v>0.0557481303058525</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>48.78764200000001</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N9">
-        <v>146.362926</v>
+        <v>0.034127</v>
       </c>
       <c r="O9">
-        <v>0.4475619218406646</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P9">
-        <v>0.4480009802197716</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q9">
-        <v>7676.632786976138</v>
+        <v>2.025749059845111</v>
       </c>
       <c r="R9">
-        <v>69089.69508278524</v>
+        <v>18.231741538606</v>
       </c>
       <c r="S9">
-        <v>0.2354788711468369</v>
+        <v>4.944907523347798E-06</v>
       </c>
       <c r="T9">
-        <v>0.235885783387841</v>
+        <v>4.949766877355443E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>157.3478953333333</v>
+        <v>178.0773926666667</v>
       </c>
       <c r="H10">
-        <v>472.043686</v>
+        <v>534.232178</v>
       </c>
       <c r="I10">
-        <v>0.5261369648659905</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="J10">
-        <v>0.5265296144488896</v>
+        <v>0.0557481303058525</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271596</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N10">
-        <v>0.8147880000000001</v>
+        <v>239.316913</v>
       </c>
       <c r="O10">
-        <v>0.002491533157602434</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P10">
-        <v>0.00249397735237479</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q10">
-        <v>42.735058980952</v>
+        <v>14205.64396269184</v>
       </c>
       <c r="R10">
-        <v>384.615530828568</v>
+        <v>127850.7956642265</v>
       </c>
       <c r="S10">
-        <v>0.001310887693403922</v>
+        <v>0.03467635606874529</v>
       </c>
       <c r="T10">
-        <v>0.001313152933790161</v>
+        <v>0.03471043247746225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,60 +1101,60 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>157.3478953333333</v>
+        <v>178.0773926666667</v>
       </c>
       <c r="H11">
-        <v>472.043686</v>
+        <v>534.232178</v>
       </c>
       <c r="I11">
-        <v>0.5261369648659905</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="J11">
-        <v>0.5265296144488896</v>
+        <v>0.0557481303058525</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>59.61647133333334</v>
+        <v>0.150414</v>
       </c>
       <c r="N11">
-        <v>178.849414</v>
+        <v>0.300828</v>
       </c>
       <c r="O11">
-        <v>0.546902071703026</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P11">
-        <v>0.5474385827988417</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q11">
-        <v>9380.526291500002</v>
+        <v>26.785332940564</v>
       </c>
       <c r="R11">
-        <v>84424.73662350001</v>
+        <v>160.711997643384</v>
       </c>
       <c r="S11">
-        <v>0.2877453960847524</v>
+        <v>6.538371262198572E-05</v>
       </c>
       <c r="T11">
-        <v>0.2882426259355206</v>
+        <v>4.363197673927047E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.255528333333333</v>
+        <v>178.0773926666667</v>
       </c>
       <c r="H12">
-        <v>3.766585</v>
+        <v>534.232178</v>
       </c>
       <c r="I12">
-        <v>0.004198212281161127</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="J12">
-        <v>0.004201345355647805</v>
+        <v>0.0557481303058525</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.320495</v>
+        <v>11.020322</v>
       </c>
       <c r="N12">
-        <v>0.6409899999999999</v>
+        <v>33.060966</v>
       </c>
       <c r="O12">
-        <v>0.002940116641429889</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P12">
-        <v>0.001962000597822644</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q12">
-        <v>0.4023905531916667</v>
+        <v>1962.470208107105</v>
       </c>
       <c r="R12">
-        <v>2.41434331915</v>
+        <v>17662.23187296395</v>
       </c>
       <c r="S12">
-        <v>1.234323379209716E-05</v>
+        <v>0.004790442157310803</v>
       </c>
       <c r="T12">
-        <v>8.243042099440381E-06</v>
+        <v>0.004795149718409894</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.255528333333333</v>
+        <v>178.0773926666667</v>
       </c>
       <c r="H13">
-        <v>3.766585</v>
+        <v>534.232178</v>
       </c>
       <c r="I13">
-        <v>0.004198212281161127</v>
+        <v>0.05574045041518104</v>
       </c>
       <c r="J13">
-        <v>0.004201345355647805</v>
+        <v>0.0557481303058525</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01137566666666667</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N13">
-        <v>0.034127</v>
+        <v>111.303427</v>
       </c>
       <c r="O13">
-        <v>0.0001043566572771055</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P13">
-        <v>0.0001044590311890878</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q13">
-        <v>0.01428247181055555</v>
+        <v>6606.87469167489</v>
       </c>
       <c r="R13">
-        <v>0.128542246295</v>
+        <v>59461.872225074</v>
       </c>
       <c r="S13">
-        <v>4.381114002016672E-07</v>
+        <v>0.01612755746320194</v>
       </c>
       <c r="T13">
-        <v>4.388684655417431E-07</v>
+        <v>0.01614340599234476</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.255528333333333</v>
+        <v>0.8050075</v>
       </c>
       <c r="H14">
-        <v>3.766585</v>
+        <v>1.610015</v>
       </c>
       <c r="I14">
-        <v>0.004198212281161127</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="J14">
-        <v>0.004201345355647805</v>
+        <v>0.0001680080865783736</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>48.78764200000001</v>
+        <v>0.1742985</v>
       </c>
       <c r="N14">
-        <v>146.362926</v>
+        <v>0.348597</v>
       </c>
       <c r="O14">
-        <v>0.4475619218406646</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P14">
-        <v>0.4480009802197716</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q14">
-        <v>61.25426684752334</v>
+        <v>0.14031159973875</v>
       </c>
       <c r="R14">
-        <v>551.2884016277101</v>
+        <v>0.5612463989549999</v>
       </c>
       <c r="S14">
-        <v>0.001878959956851555</v>
+        <v>3.425043599497758E-07</v>
       </c>
       <c r="T14">
-        <v>0.001882206837572002</v>
+        <v>1.52373750456035E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.255528333333333</v>
+        <v>0.8050075</v>
       </c>
       <c r="H15">
-        <v>3.766585</v>
+        <v>1.610015</v>
       </c>
       <c r="I15">
-        <v>0.004198212281161127</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="J15">
-        <v>0.004201345355647805</v>
+        <v>0.0001680080865783736</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.271596</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N15">
-        <v>0.8147880000000001</v>
+        <v>0.034127</v>
       </c>
       <c r="O15">
-        <v>0.002491533157602434</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P15">
-        <v>0.00249397735237479</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q15">
-        <v>0.34099647322</v>
+        <v>0.009157496984166666</v>
       </c>
       <c r="R15">
-        <v>3.06896825898</v>
+        <v>0.054944981905</v>
       </c>
       <c r="S15">
-        <v>1.04599851011667E-05</v>
+        <v>2.235369455657201E-08</v>
       </c>
       <c r="T15">
-        <v>1.047806016649063E-05</v>
+        <v>1.491710766820456E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.255528333333333</v>
+        <v>0.8050075</v>
       </c>
       <c r="H16">
-        <v>3.766585</v>
+        <v>1.610015</v>
       </c>
       <c r="I16">
-        <v>0.004198212281161127</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="J16">
-        <v>0.004201345355647805</v>
+        <v>0.0001680080865783736</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,184 +1429,184 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.61647133333334</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N16">
-        <v>178.849414</v>
+        <v>239.316913</v>
       </c>
       <c r="O16">
-        <v>0.546902071703026</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P16">
-        <v>0.5474385827988417</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q16">
-        <v>74.85016889235446</v>
+        <v>64.21730328061584</v>
       </c>
       <c r="R16">
-        <v>673.6515200311901</v>
+        <v>385.303819683695</v>
       </c>
       <c r="S16">
-        <v>0.002296010994016107</v>
+        <v>0.0001567561513002525</v>
       </c>
       <c r="T16">
-        <v>0.00229997854734433</v>
+        <v>0.0001046067969069459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>139.790128</v>
+        <v>0.8050075</v>
       </c>
       <c r="H17">
-        <v>419.370384</v>
+        <v>1.610015</v>
       </c>
       <c r="I17">
-        <v>0.4674276291293196</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="J17">
-        <v>0.4677764646528982</v>
+        <v>0.0001680080865783736</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.320495</v>
+        <v>0.150414</v>
       </c>
       <c r="N17">
-        <v>0.6409899999999999</v>
+        <v>0.300828</v>
       </c>
       <c r="O17">
-        <v>0.002940116641429889</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P17">
-        <v>0.001962000597822644</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q17">
-        <v>44.80203707336</v>
+        <v>0.121084398105</v>
       </c>
       <c r="R17">
-        <v>268.81222244016</v>
+        <v>0.48433759242</v>
       </c>
       <c r="S17">
-        <v>0.001374291751067231</v>
+        <v>2.955702475780662E-07</v>
       </c>
       <c r="T17">
-        <v>0.0009177777032963489</v>
+        <v>1.31493646251081E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>139.790128</v>
+        <v>0.8050075</v>
       </c>
       <c r="H18">
-        <v>419.370384</v>
+        <v>1.610015</v>
       </c>
       <c r="I18">
-        <v>0.4674276291293196</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="J18">
-        <v>0.4677764646528982</v>
+        <v>0.0001680080865783736</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01137566666666667</v>
+        <v>11.020322</v>
       </c>
       <c r="N18">
-        <v>0.034127</v>
+        <v>33.060966</v>
       </c>
       <c r="O18">
-        <v>0.0001043566572771055</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P18">
-        <v>0.0001044590311890878</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q18">
-        <v>1.590205899418667</v>
+        <v>8.871441862415001</v>
       </c>
       <c r="R18">
-        <v>14.311853094768</v>
+        <v>53.22865117449</v>
       </c>
       <c r="S18">
-        <v>4.877918489489839E-05</v>
+        <v>2.165542636942047E-05</v>
       </c>
       <c r="T18">
-        <v>4.88634763106983E-05</v>
+        <v>1.445113808529464E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>139.790128</v>
+        <v>0.8050075</v>
       </c>
       <c r="H19">
-        <v>419.370384</v>
+        <v>1.610015</v>
       </c>
       <c r="I19">
-        <v>0.4674276291293196</v>
+        <v>0.0002519774125488872</v>
       </c>
       <c r="J19">
-        <v>0.4677764646528982</v>
+        <v>0.0001680080865783736</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.78764200000001</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N19">
-        <v>146.362926</v>
+        <v>111.303427</v>
       </c>
       <c r="O19">
-        <v>0.4475619218406646</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P19">
-        <v>0.4480009802197716</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q19">
-        <v>6820.030719998177</v>
+        <v>29.86669783690083</v>
       </c>
       <c r="R19">
-        <v>61380.27647998359</v>
+        <v>179.200187021405</v>
       </c>
       <c r="S19">
-        <v>0.2092028080145437</v>
+        <v>7.290540657712984E-05</v>
       </c>
       <c r="T19">
-        <v>0.2095643146882377</v>
+        <v>4.865136708175775E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.790128</v>
+        <v>2891.564290333333</v>
       </c>
       <c r="H20">
-        <v>419.370384</v>
+        <v>8674.692870999999</v>
       </c>
       <c r="I20">
-        <v>0.4674276291293196</v>
+        <v>0.9050957762467463</v>
       </c>
       <c r="J20">
-        <v>0.4677764646528982</v>
+        <v>0.905220479878615</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.271596</v>
+        <v>0.1742985</v>
       </c>
       <c r="N20">
-        <v>0.8147880000000001</v>
+        <v>0.348597</v>
       </c>
       <c r="O20">
-        <v>0.002491533157602434</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P20">
-        <v>0.00249397735237479</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q20">
-        <v>37.96643960428801</v>
+        <v>503.9953184586645</v>
       </c>
       <c r="R20">
-        <v>341.697956438592</v>
+        <v>3023.971910751987</v>
       </c>
       <c r="S20">
-        <v>0.001164611436755193</v>
+        <v>0.001230266024247285</v>
       </c>
       <c r="T20">
-        <v>0.001166623908818275</v>
+        <v>0.0008209833366822665</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2891.564290333333</v>
+      </c>
+      <c r="H21">
+        <v>8674.692870999999</v>
+      </c>
+      <c r="I21">
+        <v>0.9050957762467463</v>
+      </c>
+      <c r="J21">
+        <v>0.905220479878615</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.034127</v>
+      </c>
+      <c r="O21">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P21">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q21">
+        <v>32.89347151206855</v>
+      </c>
+      <c r="R21">
+        <v>296.041243608617</v>
+      </c>
+      <c r="S21">
+        <v>8.029384190433285E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.037274655535105E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2891.564290333333</v>
+      </c>
+      <c r="H22">
+        <v>8674.692870999999</v>
+      </c>
+      <c r="I22">
+        <v>0.9050957762467463</v>
+      </c>
+      <c r="J22">
+        <v>0.905220479878615</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N22">
+        <v>239.316913</v>
+      </c>
+      <c r="O22">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P22">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q22">
+        <v>230666.7465678697</v>
+      </c>
+      <c r="R22">
+        <v>2076000.719110827</v>
+      </c>
+      <c r="S22">
+        <v>0.5630636849841762</v>
+      </c>
+      <c r="T22">
+        <v>0.5636170069141148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2891.564290333333</v>
+      </c>
+      <c r="H23">
+        <v>8674.692870999999</v>
+      </c>
+      <c r="I23">
+        <v>0.9050957762467463</v>
+      </c>
+      <c r="J23">
+        <v>0.905220479878615</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.150414</v>
+      </c>
+      <c r="N23">
+        <v>0.300828</v>
+      </c>
+      <c r="O23">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P23">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q23">
+        <v>434.931751166198</v>
+      </c>
+      <c r="R23">
+        <v>2609.590506997188</v>
+      </c>
+      <c r="S23">
+        <v>0.001061680013144869</v>
+      </c>
+      <c r="T23">
+        <v>0.000708482216448945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2891.564290333333</v>
+      </c>
+      <c r="H24">
+        <v>8674.692870999999</v>
+      </c>
+      <c r="I24">
+        <v>0.9050957762467463</v>
+      </c>
+      <c r="J24">
+        <v>0.905220479878615</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.020322</v>
+      </c>
+      <c r="N24">
+        <v>33.060966</v>
+      </c>
+      <c r="O24">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P24">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q24">
+        <v>31865.96956317482</v>
+      </c>
+      <c r="R24">
+        <v>286793.7260685734</v>
+      </c>
+      <c r="S24">
+        <v>0.07778568222253711</v>
+      </c>
+      <c r="T24">
+        <v>0.07786212210839154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2891.564290333333</v>
+      </c>
+      <c r="H25">
+        <v>8674.692870999999</v>
+      </c>
+      <c r="I25">
+        <v>0.9050957762467463</v>
+      </c>
+      <c r="J25">
+        <v>0.905220479878615</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N25">
+        <v>111.303427</v>
+      </c>
+      <c r="O25">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P25">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q25">
+        <v>107280.338301641</v>
+      </c>
+      <c r="R25">
+        <v>965523.0447147689</v>
+      </c>
+      <c r="S25">
+        <v>0.2618741691607365</v>
+      </c>
+      <c r="T25">
+        <v>0.2621315125564221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>123.798543</v>
+      </c>
+      <c r="H26">
+        <v>371.395629</v>
+      </c>
+      <c r="I26">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="J26">
+        <v>0.03875583084124156</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1742985</v>
+      </c>
+      <c r="N26">
+        <v>0.348597</v>
+      </c>
+      <c r="O26">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P26">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q26">
+        <v>21.5779003470855</v>
+      </c>
+      <c r="R26">
+        <v>129.467402082513</v>
+      </c>
+      <c r="S26">
+        <v>5.267223067229782E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.514932773527461E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>123.798543</v>
+      </c>
+      <c r="H27">
+        <v>371.395629</v>
+      </c>
+      <c r="I27">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="J27">
+        <v>0.03875583084124156</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.034127</v>
+      </c>
+      <c r="O27">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P27">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q27">
+        <v>1.408290958987</v>
+      </c>
+      <c r="R27">
+        <v>12.674618630883</v>
+      </c>
+      <c r="S27">
+        <v>3.437675818884476E-06</v>
+      </c>
+      <c r="T27">
+        <v>3.441054018312597E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>123.798543</v>
+      </c>
+      <c r="H28">
+        <v>371.395629</v>
+      </c>
+      <c r="I28">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="J28">
+        <v>0.03875583084124156</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N28">
+        <v>239.316913</v>
+      </c>
+      <c r="O28">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P28">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q28">
+        <v>9875.695048219253</v>
+      </c>
+      <c r="R28">
+        <v>88881.25543397327</v>
+      </c>
+      <c r="S28">
+        <v>0.02410683519999355</v>
+      </c>
+      <c r="T28">
+        <v>0.02413052495469324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>123.798543</v>
+      </c>
+      <c r="H29">
+        <v>371.395629</v>
+      </c>
+      <c r="I29">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="J29">
+        <v>0.03875583084124156</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.150414</v>
+      </c>
+      <c r="N29">
+        <v>0.300828</v>
+      </c>
+      <c r="O29">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P29">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q29">
+        <v>18.621034046802</v>
+      </c>
+      <c r="R29">
+        <v>111.726204280812</v>
+      </c>
+      <c r="S29">
+        <v>4.545444111305034E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.033273942101392E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>139.790128</v>
-      </c>
-      <c r="H21">
-        <v>419.370384</v>
-      </c>
-      <c r="I21">
-        <v>0.4674276291293196</v>
-      </c>
-      <c r="J21">
-        <v>0.4677764646528982</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>59.61647133333334</v>
-      </c>
-      <c r="N21">
-        <v>178.849414</v>
-      </c>
-      <c r="O21">
-        <v>0.546902071703026</v>
-      </c>
-      <c r="P21">
-        <v>0.5474385827988417</v>
-      </c>
-      <c r="Q21">
-        <v>8333.794158594999</v>
-      </c>
-      <c r="R21">
-        <v>75004.14742735498</v>
-      </c>
-      <c r="S21">
-        <v>0.2556371387420586</v>
-      </c>
-      <c r="T21">
-        <v>0.256078884876235</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>123.798543</v>
+      </c>
+      <c r="H30">
+        <v>371.395629</v>
+      </c>
+      <c r="I30">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="J30">
+        <v>0.03875583084124156</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.020322</v>
+      </c>
+      <c r="N30">
+        <v>33.060966</v>
+      </c>
+      <c r="O30">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P30">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q30">
+        <v>1364.299806990846</v>
+      </c>
+      <c r="R30">
+        <v>12278.69826291761</v>
+      </c>
+      <c r="S30">
+        <v>0.003330292242715792</v>
+      </c>
+      <c r="T30">
+        <v>0.003333564916447275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>123.798543</v>
+      </c>
+      <c r="H31">
+        <v>371.395629</v>
+      </c>
+      <c r="I31">
+        <v>0.03875049181835219</v>
+      </c>
+      <c r="J31">
+        <v>0.03875583084124156</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N31">
+        <v>111.303427</v>
+      </c>
+      <c r="O31">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P31">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q31">
+        <v>4593.067364502287</v>
+      </c>
+      <c r="R31">
+        <v>41337.60628052058</v>
+      </c>
+      <c r="S31">
+        <v>0.01121180002803861</v>
+      </c>
+      <c r="T31">
+        <v>0.01122281784892645</v>
       </c>
     </row>
   </sheetData>
